--- a/classification/droptc/sentence/bert-base-uncased/freeze/90995999/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/freeze/90995999/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3756179511547089</v>
+        <v>0.9489531517028809</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6130886673927307</v>
+        <v>0.9961180686950684</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4743120968341827</v>
+        <v>0.6084858775138855</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8872988224029541</v>
+        <v>0.5915741920471191</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.421800971031189</v>
+        <v>0.9933944344520569</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.685874342918396</v>
+        <v>0.9109560251235962</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.580757200717926</v>
+        <v>0.9903782606124878</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6161018013954163</v>
+        <v>0.9932467937469482</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3905240297317505</v>
+        <v>0.9903782606124878</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6309899091720581</v>
+        <v>0.9343031644821167</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.66060471534729</v>
+        <v>0.9659497737884521</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6759957075119019</v>
+        <v>0.9741458892822266</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6270884275436401</v>
+        <v>0.9585238695144653</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4392843246459961</v>
+        <v>0.6722069978713989</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8192753791809082</v>
+        <v>0.8831327557563782</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.559985876083374</v>
+        <v>0.9707449674606323</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7103683352470398</v>
+        <v>0.5743507146835327</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8208057880401611</v>
+        <v>0.9933890104293823</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8184670805931091</v>
+        <v>0.9219396114349365</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6481713056564331</v>
+        <v>0.9817773699760437</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6230666041374207</v>
+        <v>0.9793987274169922</v>
       </c>
     </row>
     <row r="23">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3924507200717926</v>
+        <v>0.9638940691947937</v>
       </c>
     </row>
     <row r="24">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7343950271606445</v>
+        <v>0.9323090314865112</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5827997326850891</v>
+        <v>0.5213568210601807</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8520855307579041</v>
+        <v>0.2803799211978912</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6847136616706848</v>
+        <v>0.7818949818611145</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3819183707237244</v>
+        <v>0.9961180686950684</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8352515697479248</v>
+        <v>0.750688910484314</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7740396857261658</v>
+        <v>0.9408111572265625</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9022185802459717</v>
+        <v>0.945152759552002</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.393639862537384</v>
+        <v>0.6601512432098389</v>
       </c>
     </row>
     <row r="33">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3726374804973602</v>
+        <v>0.5695769786834717</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5979554057121277</v>
+        <v>0.6923288106918335</v>
       </c>
     </row>
     <row r="35">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3071880042552948</v>
+        <v>0.9475104212760925</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9067567586898804</v>
+        <v>0.9638431072235107</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8137304186820984</v>
+        <v>0.8812052011489868</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8379749655723572</v>
+        <v>0.8384056091308594</v>
       </c>
     </row>
     <row r="39">
@@ -1519,14 +1519,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4166634082794189</v>
+        <v>0.7579697370529175</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.709125816822052</v>
+        <v>0.3936924040317535</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7986016869544983</v>
+        <v>0.9788942933082581</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8641490936279297</v>
+        <v>0.7837897539138794</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7273179292678833</v>
+        <v>0.6744627356529236</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4409831762313843</v>
+        <v>0.975138783454895</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.276126503944397</v>
+        <v>0.8243235945701599</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8026061058044434</v>
+        <v>0.8881133198738098</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6815528273582458</v>
+        <v>0.3700820207595825</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.427789568901062</v>
+        <v>0.9079075455665588</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9022185802459717</v>
+        <v>0.9967268705368042</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6267064213752747</v>
+        <v>0.8795318603515625</v>
       </c>
     </row>
     <row r="51">
@@ -1855,14 +1855,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3140872418880463</v>
+        <v>0.2908492088317871</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5441503524780273</v>
+        <v>0.9292940497398376</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9234394431114197</v>
+        <v>0.8795318603515625</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6803210377693176</v>
+        <v>0.5360857248306274</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9307368993759155</v>
+        <v>0.9919512271881104</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3146596848964691</v>
+        <v>0.9982746839523315</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8981800079345703</v>
+        <v>0.998566210269928</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7350233793258667</v>
+        <v>0.8457605838775635</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6227557063102722</v>
+        <v>0.8904505968093872</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.327372819185257</v>
+        <v>0.9429487586021423</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.369731217622757</v>
+        <v>0.8716181516647339</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7507575750350952</v>
+        <v>0.9909667372703552</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8000446557998657</v>
+        <v>0.668904185295105</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5642579793930054</v>
+        <v>0.3737561106681824</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7451589107513428</v>
+        <v>0.8676716685295105</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7384588718414307</v>
+        <v>0.8676716685295105</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6921214461326599</v>
+        <v>0.481675773859024</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3146596848964691</v>
+        <v>0.8676716685295105</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8266518115997314</v>
+        <v>0.5481916069984436</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.598341703414917</v>
+        <v>0.9666066765785217</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6730430126190186</v>
+        <v>0.4406163394451141</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8085357546806335</v>
+        <v>0.9772256016731262</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7581950426101685</v>
+        <v>0.9762569665908813</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7142369151115417</v>
+        <v>0.8823302984237671</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6550124287605286</v>
+        <v>0.5898380279541016</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7313413619995117</v>
+        <v>0.9762569665908813</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6670413017272949</v>
+        <v>0.9445517063140869</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9282764792442322</v>
+        <v>0.9762569665908813</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8777374625205994</v>
+        <v>0.988620936870575</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9022185802459717</v>
+        <v>0.9248911142349243</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8034985661506653</v>
+        <v>0.6226515769958496</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4895305335521698</v>
+        <v>0.9248911142349243</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9022185802459717</v>
+        <v>0.9563350677490234</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7418437600135803</v>
+        <v>0.9563350677490234</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7257668972015381</v>
+        <v>0.9917718768119812</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7764328718185425</v>
+        <v>0.7925409078598022</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4159426689147949</v>
+        <v>0.8302838802337646</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5872072577476501</v>
+        <v>0.909878671169281</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7589641213417053</v>
+        <v>0.9821464419364929</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5671526193618774</v>
+        <v>0.9580487608909607</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3756179511547089</v>
+        <v>0.9634705781936646</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5486942529678345</v>
+        <v>0.9668108820915222</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5941745042800903</v>
+        <v>0.9741914868354797</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6179897785186768</v>
+        <v>0.9774022102355957</v>
       </c>
     </row>
     <row r="95">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3323594629764557</v>
+        <v>0.9691949486732483</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3819183707237244</v>
+        <v>0.4612904191017151</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3206075727939606</v>
+        <v>0.379777580499649</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8491826057434082</v>
+        <v>0.9841603636741638</v>
       </c>
     </row>
     <row r="99">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7187926769256592</v>
+        <v>0.3284463286399841</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8462746143341064</v>
+        <v>0.9539719223976135</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8794494271278381</v>
+        <v>0.9483718872070312</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7382196187973022</v>
+        <v>0.3718703985214233</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.551842987537384</v>
+        <v>0.9820079207420349</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8466043472290039</v>
+        <v>0.9460999965667725</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.3548774123191833</v>
+        <v>0.9219024777412415</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9506509900093079</v>
+        <v>0.5564438700675964</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5893751382827759</v>
+        <v>0.4966952800750732</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7281208038330078</v>
+        <v>0.6183544993400574</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6253210306167603</v>
+        <v>0.7235826253890991</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7605344653129578</v>
+        <v>0.9961180686950684</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5955832600593567</v>
+        <v>0.5007924437522888</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.486390620470047</v>
+        <v>0.4751217067241669</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.4107606410980225</v>
+        <v>0.9093940258026123</v>
       </c>
     </row>
     <row r="114">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4454089105129242</v>
+        <v>0.8272863030433655</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3337767124176025</v>
+        <v>0.4503750503063202</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6904007792472839</v>
+        <v>0.8199311494827271</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.597974419593811</v>
+        <v>0.9524636268615723</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8488203287124634</v>
+        <v>0.4813031256198883</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8371068835258484</v>
+        <v>0.9323090314865112</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.7270026803016663</v>
+        <v>0.9961180686950684</v>
       </c>
     </row>
     <row r="121">
@@ -3815,14 +3815,14 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.4890550076961517</v>
+        <v>0.9264031052589417</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3811469674110413</v>
+        <v>0.9930376410484314</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6490806937217712</v>
+        <v>0.9264031052589417</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5319084525108337</v>
+        <v>0.9930376410484314</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7649523019790649</v>
+        <v>0.9264031052589417</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7886540293693542</v>
+        <v>0.9985779523849487</v>
       </c>
     </row>
     <row r="127">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3987,10 +3987,10 @@
         </is>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4107606410980225</v>
+        <v>0.624670684337616</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6981529593467712</v>
+        <v>0.9961180686950684</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9234394431114197</v>
+        <v>0.9630640745162964</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6286821961402893</v>
+        <v>0.9299306869506836</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7023305296897888</v>
+        <v>0.991755485534668</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3400000333786011</v>
+        <v>0.4877025783061981</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7746750712394714</v>
+        <v>0.9942966103553772</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.6953343749046326</v>
+        <v>0.4832561016082764</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.445897251367569</v>
+        <v>0.86991286277771</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3819183707237244</v>
+        <v>0.4637837111949921</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7162228226661682</v>
+        <v>0.9960567951202393</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5151576399803162</v>
+        <v>0.9539825320243835</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4454089105129242</v>
+        <v>0.9961593151092529</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.7310036420822144</v>
+        <v>0.9674605131149292</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8072422742843628</v>
+        <v>0.8325730562210083</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6971533894538879</v>
+        <v>0.9961180686950684</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.3584505915641785</v>
+        <v>0.6597160696983337</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.6257855892181396</v>
+        <v>0.9876254200935364</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8299896121025085</v>
+        <v>0.6597160696983337</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3124853074550629</v>
+        <v>0.9766383171081543</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8653919696807861</v>
+        <v>0.5481916069984436</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.679331362247467</v>
+        <v>0.9672003388404846</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.6839842796325684</v>
+        <v>0.5666558742523193</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.4107606410980225</v>
+        <v>0.4187174439430237</v>
       </c>
     </row>
     <row r="151">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.3811469674110413</v>
+        <v>0.9961180686950684</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7794249653816223</v>
+        <v>0.6413421034812927</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.5422571301460266</v>
+        <v>0.9899086952209473</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6187636852264404</v>
+        <v>0.7542569041252136</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.4954868853092194</v>
+        <v>0.9845147132873535</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8027300238609314</v>
+        <v>0.6591212153434753</v>
       </c>
     </row>
     <row r="157">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.4105463325977325</v>
+        <v>0.9959933757781982</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.3756179511547089</v>
+        <v>0.9354801774024963</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.6588273644447327</v>
+        <v>0.9986566305160522</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.7488027215003967</v>
+        <v>0.7862204313278198</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9005563855171204</v>
+        <v>0.9159746766090393</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.7114664912223816</v>
+        <v>0.8611133694648743</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.537032425403595</v>
+        <v>0.4339357912540436</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6062440276145935</v>
+        <v>0.7843521237373352</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9022185802459717</v>
+        <v>0.8985047936439514</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.5079020857810974</v>
+        <v>0.9109673500061035</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.3071880042552948</v>
+        <v>0.3611321151256561</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.6257855892181396</v>
+        <v>0.3781877458095551</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.2883644700050354</v>
+        <v>0.9961180686950684</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8151410818099976</v>
+        <v>0.3611321151256561</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.7212496399879456</v>
+        <v>0.4490050077438354</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.3337767124176025</v>
+        <v>0.9961180686950684</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5484001040458679</v>
+        <v>0.9395576119422913</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6907623410224915</v>
+        <v>0.9594049453735352</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5157814621925354</v>
+        <v>0.9395576119422913</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4741868376731873</v>
+        <v>0.9395576119422913</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7023812532424927</v>
+        <v>0.9594049453735352</v>
       </c>
     </row>
     <row r="178">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2761517763137817</v>
+        <v>0.99709153175354</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5935793519020081</v>
+        <v>0.9969274401664734</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.8872988224029541</v>
+        <v>0.840384840965271</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6957383751869202</v>
+        <v>0.5332444310188293</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.7449579834938049</v>
+        <v>0.988997757434845</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7276089787483215</v>
+        <v>0.4066719710826874</v>
       </c>
     </row>
     <row r="184">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.6640104055404663</v>
+        <v>0.9814712405204773</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.7270026803016663</v>
+        <v>0.8558517098426819</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5756363868713379</v>
+        <v>0.8749545216560364</v>
       </c>
     </row>
     <row r="187">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.3706710636615753</v>
+        <v>0.9586939811706543</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.7504167556762695</v>
+        <v>0.9761122465133667</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.2929885387420654</v>
+        <v>0.811018168926239</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9011306166648865</v>
+        <v>0.8979219794273376</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5493853688240051</v>
+        <v>0.5754112005233765</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9022185802459717</v>
+        <v>0.9364413619041443</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.3320401012897491</v>
+        <v>0.9811480641365051</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9022185802459717</v>
+        <v>0.8140004873275757</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7253437042236328</v>
+        <v>0.5507023334503174</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.7841339111328125</v>
+        <v>0.9910452961921692</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.7406004071235657</v>
+        <v>0.9799137115478516</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.709837019443512</v>
+        <v>0.9292328953742981</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.7550986409187317</v>
+        <v>0.9925967454910278</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8903205990791321</v>
+        <v>0.6391690969467163</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.481416255235672</v>
+        <v>0.9861380457878113</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6257855892181396</v>
+        <v>0.9808822274208069</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9022185802459717</v>
+        <v>0.8458708524703979</v>
       </c>
     </row>
     <row r="204">
@@ -6139,14 +6139,14 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5851491689682007</v>
+        <v>0.3259584903717041</v>
       </c>
     </row>
     <row r="205">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="E205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.6177538633346558</v>
+        <v>0.5429906845092773</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4428923428058624</v>
+        <v>0.9978686571121216</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7817588448524475</v>
+        <v>0.5141229033470154</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.6388739347457886</v>
+        <v>0.9925693869590759</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9022185802459717</v>
+        <v>0.4201890826225281</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.6161017417907715</v>
+        <v>0.9944434762001038</v>
       </c>
     </row>
   </sheetData>
